--- a/app/templates/import_widompark_chewei_templates.xlsx
+++ b/app/templates/import_widompark_chewei_templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
-      <t>车场/区域id</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车场id</t>
     </r>
     <r>
       <rPr>
@@ -32,34 +38,76 @@
     </r>
   </si>
   <si>
-    <t>车位号*</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车位号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
-    <t>车位类型*</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车位类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
-    <t>车位面积(M2)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车位面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(M2)*</t>
+    </r>
   </si>
   <si>
     <t>使用状态*</t>
-  </si>
-  <si>
-    <t>关联房产(苑期区)</t>
-  </si>
-  <si>
-    <t>关联房产(幢)</t>
-  </si>
-  <si>
-    <t>关联房产(单元)</t>
-  </si>
-  <si>
-    <t>关联房产(室)</t>
   </si>
   <si>
     <t>产权人姓名</t>
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
   </si>
 </sst>
 </file>
@@ -94,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,7 +151,67 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,15 +223,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,85 +248,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,25 +272,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -253,31 +300,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,31 +414,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,115 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +494,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,43 +534,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,153 +573,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,25 +1095,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1078,26 +1134,17 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"固定车位,临时车位"</formula1>
+      <formula1>"人防车位,公共车位,产权车位"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"空闲,已售,已租"</formula1>
+      <formula1>"空置,已售,已租,自用,代售,代租"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/templates/import_widompark_chewei_templates.xlsx
+++ b/app/templates/import_widompark_chewei_templates.xlsx
@@ -98,13 +98,13 @@
     </r>
   </si>
   <si>
-    <t>使用状态*</t>
+    <t>车位状态</t>
   </si>
   <si>
-    <t>产权人姓名</t>
+    <t>车位所有人姓名</t>
   </si>
   <si>
-    <t>电话</t>
+    <t>联系电话</t>
   </si>
   <si>
     <t>身份证号码</t>
@@ -142,14 +142,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,128 +285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -300,13 +300,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,169 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,11 +494,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +559,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,50 +591,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1125,13 +1125,13 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">

--- a/app/templates/import_widompark_chewei_templates.xlsx
+++ b/app/templates/import_widompark_chewei_templates.xlsx
@@ -19,13 +19,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车场id</t>
+      <t>所属车场</t>
     </r>
     <r>
       <rPr>
@@ -141,41 +135,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +190,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -195,83 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +250,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -300,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +485,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,13 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -570,24 +577,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1092,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
